--- a/Year_2/БИПИП/laba2/lab2.xlsx
+++ b/Year_2/БИПИП/laba2/lab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57thr\Documents\GitHub\uni_stuff\Year_2\БИПИП\laba2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A4DBDC-B059-418A-91E0-5B9304BBE6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77ADCE-A043-4FDE-9CD0-7B657F733244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FAF6A5E7-BD21-49B6-81CC-564D7C05BFB4}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
